--- a/multi-language_template.xlsx
+++ b/multi-language_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunnysun/workspace/Multi-language_Auto_Merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1663A2E-0ACE-0944-82D4-A45D28156332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97217D26-5619-914D-958A-1EECEFC49A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>en</t>
   </si>
@@ -62,12 +62,84 @@
   <si>
     <t>KeyName</t>
   </si>
+  <si>
+    <t>lightup_party</t>
+  </si>
+  <si>
+    <t>Light up your party</t>
+  </si>
+  <si>
+    <t>Éclairez votre soirée</t>
+  </si>
+  <si>
+    <t>Lass deine Party leuchten</t>
+  </si>
+  <si>
+    <t>Illumina la tua festa</t>
+  </si>
+  <si>
+    <t>Ilumina la fiesta</t>
+  </si>
+  <si>
+    <t>Зажги свою вечеринку</t>
+  </si>
+  <si>
+    <r>
+      <t>파티에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>빛을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>더하세요</t>
+    </r>
+  </si>
+  <si>
+    <t>ライトショーを楽しもう</t>
+  </si>
+  <si>
+    <t>Geef kleur aan je feestjes</t>
+  </si>
+  <si>
+    <t>Ilumine sua festa</t>
+  </si>
+  <si>
+    <t>点亮您的派对</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -90,6 +162,46 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +280,28 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,27 +1496,27 @@
   <dimension ref="A1:IU115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24" style="1" customWidth="1"/>
+    <col min="11" max="11" width="41.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="61.1640625" style="1" customWidth="1"/>
     <col min="13" max="255" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -1420,21 +1554,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="19" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1448,7 +1606,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -1462,7 +1620,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1476,7 +1634,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1490,7 +1648,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -1504,7 +1662,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1518,7 +1676,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="26" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -1532,7 +1690,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1546,7 +1704,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1560,7 +1718,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
@@ -1574,7 +1732,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -1588,7 +1746,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -1602,7 +1760,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -1616,7 +1774,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
@@ -1630,7 +1788,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1644,7 +1802,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="26" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1658,7 +1816,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="26" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -1672,7 +1830,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="26" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -1686,7 +1844,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="26" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1700,7 +1858,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="26" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -1714,7 +1872,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1728,7 +1886,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1742,7 +1900,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
@@ -1756,7 +1914,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
@@ -1770,7 +1928,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -1784,7 +1942,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1798,7 +1956,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -1812,7 +1970,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -1826,7 +1984,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
@@ -1840,7 +1998,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
@@ -1854,7 +2012,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
@@ -1868,7 +2026,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="26" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
@@ -1882,7 +2040,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="26" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
@@ -1896,7 +2054,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
@@ -1910,7 +2068,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
@@ -1924,7 +2082,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -1938,7 +2096,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
@@ -1952,7 +2110,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
@@ -1966,7 +2124,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
@@ -1980,7 +2138,7 @@
       <c r="K41" s="8"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
@@ -1994,7 +2152,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
@@ -2008,7 +2166,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="15" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
@@ -2022,7 +2180,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
@@ -2036,7 +2194,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
@@ -2050,7 +2208,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="15" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
@@ -2064,7 +2222,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="15" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
@@ -2078,7 +2236,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="15" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
@@ -2092,7 +2250,7 @@
       <c r="K49" s="8"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="15" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
@@ -2106,7 +2264,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="15" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
@@ -2120,7 +2278,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="15" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
@@ -2134,7 +2292,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="15" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
@@ -2148,7 +2306,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="26" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -2162,7 +2320,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="39" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -2176,7 +2334,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="15" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
@@ -2190,7 +2348,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="26" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
@@ -2204,7 +2362,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="52" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -2218,7 +2376,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="15" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
@@ -2232,7 +2390,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="15" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -2246,7 +2404,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="15" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
@@ -2260,7 +2418,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="15" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
@@ -2274,7 +2432,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="15" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
@@ -2288,7 +2446,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="15" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -2302,7 +2460,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="15" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
@@ -2316,7 +2474,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="15" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
@@ -2330,7 +2488,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="15" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -2344,7 +2502,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="15" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -2358,7 +2516,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="15" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
@@ -2372,7 +2530,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="15" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
@@ -2386,7 +2544,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="15" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
@@ -2400,7 +2558,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="15" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
@@ -2414,7 +2572,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="15" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
@@ -2428,7 +2586,7 @@
       <c r="K73" s="8"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="15" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
@@ -2442,7 +2600,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="15" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
@@ -2456,7 +2614,7 @@
       <c r="K75" s="8"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="15" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
@@ -2470,7 +2628,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="15" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -2484,7 +2642,7 @@
       <c r="K77" s="8"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="15" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
@@ -2498,7 +2656,7 @@
       <c r="K78" s="8"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="15" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
@@ -2512,7 +2670,7 @@
       <c r="K79" s="8"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="15" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
@@ -2526,7 +2684,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="15" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
@@ -2540,7 +2698,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="15" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
@@ -2554,7 +2712,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="15" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
@@ -2568,7 +2726,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="15" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
@@ -2582,7 +2740,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="15" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
@@ -2596,7 +2754,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="15" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="9"/>
       <c r="C86" s="7"/>
@@ -2610,7 +2768,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="7"/>
     </row>
-    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="15" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2624,7 +2782,7 @@
       <c r="K87" s="8"/>
       <c r="L87" s="7"/>
     </row>
-    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="15" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="9"/>
       <c r="C88" s="7"/>
@@ -2638,7 +2796,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="7"/>
     </row>
-    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="15" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="9"/>
       <c r="C89" s="7"/>
@@ -2652,7 +2810,7 @@
       <c r="K89" s="8"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="15" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="9"/>
       <c r="C90" s="7"/>
@@ -2666,7 +2824,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="7"/>
     </row>
-    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="15" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="9"/>
       <c r="C91" s="7"/>
@@ -2680,7 +2838,7 @@
       <c r="K91" s="8"/>
       <c r="L91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="15" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="9"/>
       <c r="C92" s="7"/>
@@ -2694,7 +2852,7 @@
       <c r="K92" s="8"/>
       <c r="L92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="15" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="9"/>
       <c r="C93" s="7"/>
@@ -2708,7 +2866,7 @@
       <c r="K93" s="8"/>
       <c r="L93" s="7"/>
     </row>
-    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="15" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="9"/>
       <c r="C94" s="7"/>
@@ -2722,7 +2880,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="15" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="9"/>
       <c r="C95" s="7"/>
@@ -2736,7 +2894,7 @@
       <c r="K95" s="8"/>
       <c r="L95" s="7"/>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="15" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="9"/>
       <c r="C96" s="7"/>
@@ -2750,7 +2908,7 @@
       <c r="K96" s="8"/>
       <c r="L96" s="7"/>
     </row>
-    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="15" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="9"/>
       <c r="C97" s="7"/>
@@ -2764,7 +2922,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="7"/>
     </row>
-    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="15" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="9"/>
       <c r="C98" s="7"/>
@@ -2778,7 +2936,7 @@
       <c r="K98" s="8"/>
       <c r="L98" s="7"/>
     </row>
-    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="15" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="9"/>
       <c r="C99" s="7"/>
@@ -2792,7 +2950,7 @@
       <c r="K99" s="8"/>
       <c r="L99" s="7"/>
     </row>
-    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="15" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="9"/>
       <c r="C100" s="7"/>
@@ -2806,7 +2964,7 @@
       <c r="K100" s="8"/>
       <c r="L100" s="7"/>
     </row>
-    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="15" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="9"/>
       <c r="C101" s="7"/>
@@ -2820,7 +2978,7 @@
       <c r="K101" s="8"/>
       <c r="L101" s="7"/>
     </row>
-    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="15" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="9"/>
       <c r="C102" s="7"/>
@@ -2834,7 +2992,7 @@
       <c r="K102" s="8"/>
       <c r="L102" s="7"/>
     </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="15" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="9"/>
       <c r="C103" s="7"/>
@@ -2848,7 +3006,7 @@
       <c r="K103" s="8"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="15" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="9"/>
       <c r="C104" s="7"/>
@@ -2862,7 +3020,7 @@
       <c r="K104" s="8"/>
       <c r="L104" s="7"/>
     </row>
-    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="15" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="9"/>
       <c r="C105" s="7"/>
@@ -2876,7 +3034,7 @@
       <c r="K105" s="8"/>
       <c r="L105" s="7"/>
     </row>
-    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="15" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="9"/>
       <c r="C106" s="7"/>
@@ -2890,7 +3048,7 @@
       <c r="K106" s="8"/>
       <c r="L106" s="7"/>
     </row>
-    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="15" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="9"/>
       <c r="C107" s="7"/>
@@ -2904,7 +3062,7 @@
       <c r="K107" s="8"/>
       <c r="L107" s="7"/>
     </row>
-    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="15" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="9"/>
       <c r="C108" s="7"/>
@@ -2918,7 +3076,7 @@
       <c r="K108" s="8"/>
       <c r="L108" s="7"/>
     </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="15" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="9"/>
       <c r="C109" s="7"/>
@@ -2932,7 +3090,7 @@
       <c r="K109" s="8"/>
       <c r="L109" s="7"/>
     </row>
-    <row r="110" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="15" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="9"/>
       <c r="C110" s="7"/>
@@ -2946,7 +3104,7 @@
       <c r="K110" s="8"/>
       <c r="L110" s="7"/>
     </row>
-    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="15" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="9"/>
       <c r="C111" s="7"/>
@@ -2960,7 +3118,7 @@
       <c r="K111" s="8"/>
       <c r="L111" s="7"/>
     </row>
-    <row r="112" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="15" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="9"/>
       <c r="C112" s="7"/>
@@ -2974,7 +3132,7 @@
       <c r="K112" s="8"/>
       <c r="L112" s="7"/>
     </row>
-    <row r="113" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="15" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="9"/>
       <c r="C113" s="7"/>
@@ -2988,7 +3146,7 @@
       <c r="K113" s="8"/>
       <c r="L113" s="7"/>
     </row>
-    <row r="114" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="15" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="9"/>
       <c r="C114" s="7"/>
@@ -3002,7 +3160,7 @@
       <c r="K114" s="8"/>
       <c r="L114" s="7"/>
     </row>
-    <row r="115" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="15" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="9"/>
       <c r="C115" s="7"/>
